--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3452369.937719501</v>
+        <v>3447166.604259183</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6799228.464723556</v>
+        <v>6797458.526552302</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>192.1281263789778</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>12.71168991452842</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>47.77614120445193</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.74230969662842</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>130.4178928586277</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -835,10 +835,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3673675009149429</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>372.2229409447116</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>249.6624742531751</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.24059023833877</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>47.77614120445193</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>130.4178928586277</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>101.0651783736292</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>233.3064617468429</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1187,19 +1187,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.9867441724176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.2540412271705</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>14.24559732535218</v>
+        <v>85.21891736047006</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1619,7 +1619,7 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>226.8509454548578</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>10.60336910358969</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>99.46191014565997</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1898,7 +1898,7 @@
         <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541621</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080567</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453476</v>
+        <v>20.92391191189562</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443488</v>
+        <v>48.81858568179574</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158223</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620407</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504632</v>
+        <v>67.32610467782406</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074561</v>
+        <v>52.47323292810647</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258534</v>
+        <v>38.0469481399462</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546445</v>
+        <v>37.97339019282531</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523172</v>
+        <v>39.72284161259257</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762385</v>
+        <v>50.54167953498471</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419589</v>
+        <v>37.89393170155675</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536782</v>
+        <v>15.73364728272868</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982374</v>
+        <v>6.632145647184601</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535106</v>
+        <v>84.75808915271192</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>157.6687988697516</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.486906268228</v>
+        <v>40.4869062682279</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.218901733285</v>
+        <v>83.73065383658681</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415644</v>
+        <v>86.88909903415635</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443885</v>
+        <v>72.03622728443875</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627858</v>
+        <v>57.60994249627848</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915769</v>
+        <v>57.53638454915759</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892496</v>
+        <v>59.28583596892486</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131709</v>
+        <v>70.10467389131699</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788913</v>
+        <v>57.45692605788904</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906106</v>
+        <v>35.29664163906097</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351698</v>
+        <v>26.19514000351688</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643891</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
         <v>312.564288486645</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812812</v>
+        <v>68.38158003812802</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>37.99245879234373</v>
       </c>
       <c r="V44" t="n">
-        <v>123.482997726112</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415644</v>
+        <v>86.88909903415635</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443885</v>
+        <v>72.03622728443875</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627858</v>
+        <v>57.60994249627848</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915769</v>
+        <v>57.53638454915759</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892496</v>
+        <v>59.28583596892486</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131709</v>
+        <v>70.10467389131699</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788913</v>
+        <v>57.45692605788904</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906106</v>
+        <v>35.29664163906097</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351698</v>
+        <v>26.19514000351688</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1459.792248540347</v>
+        <v>863.4083566884699</v>
       </c>
       <c r="C2" t="n">
-        <v>1066.616747043278</v>
+        <v>470.2328551914005</v>
       </c>
       <c r="D2" t="n">
-        <v>1066.616747043278</v>
+        <v>470.2328551914005</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190579</v>
+        <v>470.2328551914005</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490357</v>
+        <v>53.33841672137822</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="M2" t="n">
-        <v>1151.464273687141</v>
+        <v>990.7164596631916</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687141</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579469</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137461</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137461</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="T2" t="n">
-        <v>2086.544013137461</v>
+        <v>1634.902137431579</v>
       </c>
       <c r="U2" t="n">
-        <v>1830.79128357206</v>
+        <v>1634.902137431579</v>
       </c>
       <c r="V2" t="n">
-        <v>1830.79128357206</v>
+        <v>1634.902137431579</v>
       </c>
       <c r="W2" t="n">
-        <v>1459.792248540347</v>
+        <v>1263.903102399867</v>
       </c>
       <c r="X2" t="n">
-        <v>1459.792248540347</v>
+        <v>1263.903102399867</v>
       </c>
       <c r="Y2" t="n">
-        <v>1459.792248540347</v>
+        <v>1263.903102399867</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>691.202491237162</v>
+        <v>505.9467430955074</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>355.2925126555996</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>225.2035452770799</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>88.75705438796763</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="H3" t="n">
-        <v>91.8779925251272</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>524.0644117969355</v>
       </c>
       <c r="M3" t="n">
-        <v>1193.092668739687</v>
+        <v>616.9613602238143</v>
       </c>
       <c r="N3" t="n">
-        <v>1718.915558135542</v>
+        <v>1118.128143219265</v>
       </c>
       <c r="O3" t="n">
-        <v>1718.915558135542</v>
+        <v>1619.294926214715</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.10224989849</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031777</v>
+        <v>1026.36437211095</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817884</v>
+        <v>837.0572944609614</v>
       </c>
       <c r="Y3" t="n">
-        <v>842.9988256781234</v>
+        <v>657.7430775364687</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.4863605778219</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="C4" t="n">
-        <v>709.4863605778219</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="D4" t="n">
-        <v>709.4863605778219</v>
+        <v>810.2101031284294</v>
       </c>
       <c r="E4" t="n">
-        <v>553.9275484370244</v>
+        <v>654.6512909876319</v>
       </c>
       <c r="F4" t="n">
-        <v>396.6016136499973</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="G4" t="n">
-        <v>228.3475597494429</v>
+        <v>329.0713023000504</v>
       </c>
       <c r="H4" t="n">
-        <v>72.86900871093684</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W4" t="n">
-        <v>943.5666827948388</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="X4" t="n">
-        <v>709.4863605778219</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.4863605778219</v>
+        <v>941.9453484401746</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>707.8378114764853</v>
+        <v>1286.318776555232</v>
       </c>
       <c r="C5" t="n">
-        <v>707.8378114764853</v>
+        <v>910.33600792421</v>
       </c>
       <c r="D5" t="n">
-        <v>707.8378114764853</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="E5" t="n">
-        <v>707.8378114764853</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490357</v>
+        <v>512.0408447112595</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703879</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703879</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703879</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>401.4730945645006</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>894.7933862830295</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1420.616275678884</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="N5" t="n">
-        <v>1946.439165074739</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.536926851939</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851939</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="U5" t="n">
-        <v>1868.784197286538</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="V5" t="n">
-        <v>1868.784197286538</v>
+        <v>1682.809485634631</v>
       </c>
       <c r="W5" t="n">
-        <v>1497.785162254826</v>
+        <v>1682.809485634631</v>
       </c>
       <c r="X5" t="n">
-        <v>1108.332557187882</v>
+        <v>1682.809485634631</v>
       </c>
       <c r="Y5" t="n">
-        <v>1108.332557187882</v>
+        <v>1286.318776555232</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163344</v>
+        <v>505.9467430955074</v>
       </c>
       <c r="C6" t="n">
-        <v>454.9131445764266</v>
+        <v>355.2925126555996</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8241771979069</v>
+        <v>225.2035452770799</v>
       </c>
       <c r="E6" t="n">
-        <v>188.3776863087946</v>
+        <v>88.75705438796763</v>
       </c>
       <c r="F6" t="n">
-        <v>63.94588019192643</v>
+        <v>88.75705438796763</v>
       </c>
       <c r="G6" t="n">
-        <v>42.49073853703879</v>
+        <v>88.75705438796763</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703879</v>
+        <v>88.75705438796763</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K6" t="n">
-        <v>72.8047795709353</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="L6" t="n">
-        <v>556.3708654692485</v>
+        <v>524.0644117969355</v>
       </c>
       <c r="M6" t="n">
-        <v>1082.193754865104</v>
+        <v>1025.231194792386</v>
       </c>
       <c r="N6" t="n">
-        <v>1608.016644260958</v>
+        <v>1523.749511935662</v>
       </c>
       <c r="O6" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.10224989849</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031777</v>
+        <v>1026.36437211095</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817884</v>
+        <v>837.0572944609614</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572957</v>
+        <v>657.7430775364687</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>656.6437036260484</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="C7" t="n">
-        <v>656.6437036260484</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="D7" t="n">
-        <v>656.6437036260484</v>
+        <v>810.2101031284294</v>
       </c>
       <c r="E7" t="n">
-        <v>656.6437036260484</v>
+        <v>654.6512909876319</v>
       </c>
       <c r="F7" t="n">
-        <v>499.3177688390214</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="G7" t="n">
-        <v>331.0637149384669</v>
+        <v>329.0713023000504</v>
       </c>
       <c r="H7" t="n">
-        <v>175.5851638999609</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>841.8517223173496</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>841.8517223173496</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U7" t="n">
-        <v>841.8517223173496</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V7" t="n">
-        <v>841.8517223173496</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W7" t="n">
-        <v>841.8517223173496</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="X7" t="n">
-        <v>841.8517223173496</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="Y7" t="n">
-        <v>841.8517223173496</v>
+        <v>941.9453484401746</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.6264729102897</v>
+        <v>1147.694083084829</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6264729102897</v>
+        <v>754.5185815877596</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>754.5185815877596</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>754.5185815877596</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4835,19 +4835,19 @@
         <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026308</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y8" t="n">
-        <v>207.6264729102897</v>
+        <v>1548.188828796226</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>745.9259573278732</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>832.3417691813077</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>596.6227173495417</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>596.6227173495417</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>330.643372170366</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1642.069506034397</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1343.834685824516</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>1053.334238328372</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3019.994019186185</v>
+        <v>2819.743875775095</v>
       </c>
       <c r="V11" t="n">
-        <v>2772.827891176892</v>
+        <v>2819.743875775095</v>
       </c>
       <c r="W11" t="n">
-        <v>2772.827891176892</v>
+        <v>2543.685522030571</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.315967397137</v>
+        <v>2249.173598250816</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1947.623570458606</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669550999</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082775</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443715</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445328</v>
+        <v>234.1241141445329</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311667</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798491</v>
@@ -5203,16 +5203,16 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469764</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592128</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1509.593365335563</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1211.358545125682</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>920.8580976295375</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580789</v>
+        <v>613.2152540332704</v>
       </c>
       <c r="F14" t="n">
-        <v>609.483571075245</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="G14" t="n">
         <v>291.2614968504365</v>
@@ -5273,13 +5273,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3095.245911363766</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>3095.245911363766</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2934.433863085554</v>
       </c>
       <c r="V14" t="n">
-        <v>3005.489809301069</v>
+        <v>2687.267735076261</v>
       </c>
       <c r="W14" t="n">
-        <v>2729.431455556545</v>
+        <v>2411.209381331736</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>2116.697457551982</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.36950398458</v>
+        <v>1815.147429759771</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C16" t="n">
         <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
         <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,7 +5434,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
         <v>300.283149675766</v>
@@ -5455,7 +5455,7 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5537,7 +5537,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
         <v>3071.119566829236</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>862.5399502876207</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M18" t="n">
-        <v>1490.311599914302</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N18" t="n">
-        <v>2146.089571124861</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5665,7 +5665,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,16 +5677,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5744,16 +5744,16 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6160,13 +6160,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
         <v>1098.202162476281</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388004</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958355</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
         <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6303,13 +6303,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6446,25 +6446,25 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>763.0997113429867</v>
       </c>
       <c r="L29" t="n">
         <v>1349.471364791089</v>
@@ -6476,16 +6476,16 @@
         <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>3079.395388107028</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
@@ -6534,25 +6534,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6616,16 +6616,16 @@
         <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904116</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200823</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.2201666674327</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423742</v>
+        <v>590.5275805474753</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855432</v>
       </c>
       <c r="H32" t="n">
-        <v>96.1864398926765</v>
+        <v>87.68547930209921</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1178.372170887746</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1826.626800429183</v>
       </c>
       <c r="N32" t="n">
-        <v>2165.824047797876</v>
+        <v>2354.438084066645</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690204</v>
+        <v>2794.477684958973</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462112</v>
+        <v>3142.665177090495</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243446</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448547</v>
+        <v>3171.900284432041</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590199</v>
+        <v>341.6872565554781</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229132</v>
+        <v>288.6839909715322</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233321</v>
+        <v>250.2527302241118</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804387</v>
+        <v>211.8957704333791</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913157</v>
+        <v>171.7716879964169</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806345</v>
+        <v>82.44278775748614</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259938</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359357</v>
+        <v>148.3852558545707</v>
       </c>
       <c r="L34" t="n">
-        <v>393.2220734097355</v>
+        <v>312.5128957283705</v>
       </c>
       <c r="M34" t="n">
-        <v>579.5136517479995</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>821.1101792827994</v>
+        <v>911.7331790744408</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964893</v>
+        <v>1074.437946116149</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381858</v>
+        <v>1208.163919660956</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003229</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448268</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279005</v>
+        <v>798.6106513157159</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569823</v>
+        <v>632.4821015969584</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378695</v>
+        <v>515.6036317300063</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152417</v>
+        <v>409.6934228967146</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,49 +7096,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
         <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485496</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1409.24791294479</v>
+        <v>1853.707880260104</v>
       </c>
       <c r="C41" t="n">
-        <v>1113.513663437853</v>
+        <v>1557.973630753167</v>
       </c>
       <c r="D41" t="n">
-        <v>1113.513663437853</v>
+        <v>1269.973753959968</v>
       </c>
       <c r="E41" t="n">
-        <v>808.3713905445311</v>
+        <v>964.8314810666462</v>
       </c>
       <c r="F41" t="n">
-        <v>488.9182040646419</v>
+        <v>645.3782945867572</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648938</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="H41" t="n">
         <v>103.0149926215175</v>
@@ -7439,22 +7439,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.897034755326</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2821.585557180058</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2576.919999873709</v>
+        <v>3021.379967189022</v>
       </c>
       <c r="W41" t="n">
-        <v>2303.362216832129</v>
+        <v>2747.822184147443</v>
       </c>
       <c r="X41" t="n">
-        <v>2011.350863755319</v>
+        <v>2455.810831070633</v>
       </c>
       <c r="Y41" t="n">
-        <v>1712.301406666053</v>
+        <v>2156.761373981367</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7497,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344866</v>
+        <v>475.5803720344859</v>
       </c>
       <c r="C43" t="n">
-        <v>402.816506090609</v>
+        <v>402.8165060906084</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832569</v>
+        <v>344.6246449832564</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325926</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356987</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690448</v>
+        <v>97.77230107690438</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822075</v>
+        <v>68.23195016743819</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529123</v>
+        <v>245.5691623529096</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022416</v>
+        <v>505.198973302239</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160351</v>
+        <v>786.9927227160326</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822774</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.657018155762</v>
+        <v>825.657018155761</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288782</v>
+        <v>689.0179479288773</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356548</v>
+        <v>563.347138735654</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>1290.43596739239</v>
       </c>
       <c r="D44" t="n">
-        <v>1002.436090599191</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
         <v>697.2938177058683</v>
       </c>
       <c r="F44" t="n">
-        <v>377.8406312259792</v>
+        <v>377.8406312259793</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7679,19 +7679,19 @@
         <v>3036.88408213696</v>
       </c>
       <c r="U44" t="n">
-        <v>2878.572604561692</v>
+        <v>2998.507861134593</v>
       </c>
       <c r="V44" t="n">
-        <v>2753.842303828245</v>
+        <v>2753.842303828244</v>
       </c>
       <c r="W44" t="n">
-        <v>2480.284520786666</v>
+        <v>2480.284520786665</v>
       </c>
       <c r="X44" t="n">
         <v>2188.273167709855</v>
       </c>
       <c r="Y44" t="n">
-        <v>1889.22371062059</v>
+        <v>1889.223710620589</v>
       </c>
     </row>
     <row r="45">
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344866</v>
+        <v>475.5803720344859</v>
       </c>
       <c r="C46" t="n">
-        <v>402.816506090609</v>
+        <v>402.8165060906084</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832569</v>
+        <v>344.6246449832564</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325926</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356987</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690448</v>
+        <v>97.77230107690438</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.23195016744091</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529123</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022416</v>
+        <v>564.8145793170086</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160351</v>
+        <v>846.6083287308022</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822774</v>
+        <v>1125.300133837541</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940011</v>
+        <v>1383.507071954779</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792119</v>
+        <v>1598.885408806887</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.657018155762</v>
+        <v>825.657018155761</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288782</v>
+        <v>689.0179479288773</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356548</v>
+        <v>563.347138735654</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>262.8776925020535</v>
+        <v>600.822026171747</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705622</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>328.9343099507067</v>
+        <v>186.2224234906036</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671515</v>
+        <v>591.6011865869447</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>598.916632621667</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.859283310712</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>680.252723050769</v>
+        <v>163.6567693305845</v>
       </c>
       <c r="O5" t="n">
-        <v>329.4605664919752</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>120.2171788019157</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622967</v>
+        <v>598.6161957820899</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671515</v>
+        <v>588.9259685544454</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.916632621667</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>359.0336792490003</v>
+        <v>359.5215849845346</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N9" t="n">
-        <v>553.266865265316</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>374.5901161977063</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8784,10 +8784,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>320.902235706038</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>306.543171528089</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,22 +9246,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>575.5973938481089</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>538.5873532373481</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,16 +9480,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,25 +9717,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>496.3264449482919</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,7 +9960,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>454.5321323046924</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263905</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,19 +10431,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069885</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>458.3628540128008</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>144.9583304700787</v>
+        <v>73.98501043496084</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404346</v>
+        <v>60.25377593045381</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>145.2325565835403</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>154.8954896168934</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812812</v>
+        <v>68.38158003812802</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>158.4882478966981</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.486906268228</v>
+        <v>40.4869062682279</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>118.7359040071717</v>
       </c>
       <c r="V44" t="n">
-        <v>118.7359040071729</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>591183.7494442336</v>
+        <v>590281.4280235932</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>591183.7494442336</v>
+        <v>590281.4280235932</v>
       </c>
     </row>
     <row r="4">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>566379.6233634789</v>
+        <v>566379.6233634792</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>566379.623363479</v>
+        <v>566379.6233634792</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>703295.4945640912</v>
+      </c>
+      <c r="C2" t="n">
+        <v>703295.4945640913</v>
+      </c>
+      <c r="D2" t="n">
         <v>703295.4945640916</v>
       </c>
-      <c r="C2" t="n">
-        <v>703295.4945640912</v>
-      </c>
-      <c r="D2" t="n">
-        <v>703295.4945640913</v>
-      </c>
       <c r="E2" t="n">
-        <v>660956.8784646291</v>
+        <v>660956.8784646288</v>
       </c>
       <c r="F2" t="n">
-        <v>660956.8784646285</v>
+        <v>660956.8784646294</v>
       </c>
       <c r="G2" t="n">
-        <v>703295.4945640907</v>
+        <v>703295.4945640909</v>
       </c>
       <c r="H2" t="n">
-        <v>703295.4945640906</v>
+        <v>703295.4945640909</v>
       </c>
       <c r="I2" t="n">
-        <v>703295.4945640907</v>
+        <v>703295.4945640911</v>
       </c>
       <c r="J2" t="n">
-        <v>703295.4945640909</v>
+        <v>703295.4945640911</v>
       </c>
       <c r="K2" t="n">
         <v>703295.4945640909</v>
       </c>
       <c r="L2" t="n">
-        <v>703295.4945640914</v>
+        <v>703295.4945640906</v>
       </c>
       <c r="M2" t="n">
-        <v>703295.4945640906</v>
+        <v>703295.4945640907</v>
       </c>
       <c r="N2" t="n">
-        <v>703295.4945640907</v>
+        <v>703295.4945640909</v>
       </c>
       <c r="O2" t="n">
-        <v>663838.8074546236</v>
+        <v>663838.8074546234</v>
       </c>
       <c r="P2" t="n">
-        <v>663838.8074546236</v>
+        <v>663838.8074546235</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343506</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602665</v>
+        <v>26460.41160941829</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301432</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.0333767012</v>
+        <v>46725.80335481254</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436854</v>
+        <v>43782.97194555664</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015682</v>
+        <v>18983.55983015688</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202745.5458432093</v>
+        <v>208555.3986987921</v>
       </c>
       <c r="C4" t="n">
-        <v>202745.5458432094</v>
+        <v>208555.3986987921</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>135951.9703483081</v>
+        <v>135951.970348308</v>
       </c>
       <c r="F4" t="n">
-        <v>135951.9703483081</v>
+        <v>135951.970348308</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>160983.928801512</v>
+        <v>160850.5341924572</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551967</v>
-      </c>
-      <c r="H5" t="n">
-        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255073</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256634.0902983821</v>
+        <v>260684.7623057964</v>
       </c>
       <c r="C6" t="n">
-        <v>434629.3874327324</v>
+        <v>430333.7681823463</v>
       </c>
       <c r="D6" t="n">
-        <v>426301.9420898556</v>
+        <v>418565.6528664641</v>
       </c>
       <c r="E6" t="n">
-        <v>339439.6874696997</v>
+        <v>339331.1269155984</v>
       </c>
       <c r="F6" t="n">
-        <v>469892.6186074113</v>
+        <v>469784.0580533111</v>
       </c>
       <c r="G6" t="n">
-        <v>455474.4783837668</v>
+        <v>455474.4783837669</v>
       </c>
       <c r="H6" t="n">
-        <v>484569.434256781</v>
+        <v>484569.4342567812</v>
       </c>
       <c r="I6" t="n">
-        <v>484569.4342567811</v>
+        <v>484569.4342567815</v>
       </c>
       <c r="J6" t="n">
-        <v>256483.7909070317</v>
+        <v>263000.0760616052</v>
       </c>
       <c r="K6" t="n">
-        <v>478329.6658539982</v>
+        <v>478329.6658539983</v>
       </c>
       <c r="L6" t="n">
-        <v>439435.3189214106</v>
+        <v>435386.4817109375</v>
       </c>
       <c r="M6" t="n">
-        <v>441838.1573224124</v>
+        <v>440786.4623112244</v>
       </c>
       <c r="N6" t="n">
         <v>484569.4342567812</v>
       </c>
       <c r="O6" t="n">
-        <v>451908.2535946167</v>
+        <v>451807.082602028</v>
       </c>
       <c r="P6" t="n">
-        <v>470891.8134247736</v>
+        <v>470790.6424321849</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.229073732778</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.229073732778</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,22 +26802,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014442</v>
       </c>
-      <c r="H4" t="n">
-        <v>776.4890963014441</v>
-      </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288068</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.3686948412679</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.9637917208765</v>
+        <v>58.40725419351567</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165938</v>
+        <v>14.33013548902015</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769603</v>
+        <v>23.7294497876961</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.229073732778</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631023</v>
+        <v>85.18305253651704</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.705872255919</v>
+        <v>646.800714275712</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455251</v>
+        <v>129.688382025732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.3686948412679</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.229073732778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631023</v>
+        <v>85.18305253651704</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>206.4295632556431</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>396.3194380423484</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>75.41134685124759</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.77876505861941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788266</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.1297305472192</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>17.0208055373871</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>163.0630198321469</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>97.61862951051543</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>1.117240243755589</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788266</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>99.72274460564689</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,13 +27862,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>179.4190323384791</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>24.53905781618727</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,19 +28059,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>85.53388175210557</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431596</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28749,11 +28749,11 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>5.636002634529177</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28983,13 +28983,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,25 +29296,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>30.27223765901215</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
@@ -29548,7 +29548,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="K31" t="n">
         <v>93.99127447431646</v>
@@ -29706,7 +29706,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>103.2865954513696</v>
       </c>
       <c r="N32" t="n">
-        <v>26.78466270501883</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539251</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539251</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N34" t="n">
-        <v>58.99686212483917</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539251</v>
+        <v>13.98970481639299</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30168,13 +30168,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634528609</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,20 +30402,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023182</v>
+        <v>36.24905561692943</v>
       </c>
       <c r="K43" t="n">
-        <v>36.24905561693222</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J46" t="n">
-        <v>36.24905561693219</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023182</v>
+        <v>36.24905561692961</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
   </sheetData>
@@ -34702,16 +34702,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>113.1526409043262</v>
+        <v>451.0969745740197</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>506.229073732778</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>236.5471879013948</v>
+        <v>93.8353014412917</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129848</v>
+        <v>506.229073732778</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>506.229073732778</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129848</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129848</v>
+        <v>14.53827799280042</v>
       </c>
       <c r="O5" t="n">
-        <v>179.8967290678789</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>30.62024346858233</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129848</v>
+        <v>506.229073732778</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129848</v>
+        <v>503.5538557002787</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.229073732778</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>209.4698418249039</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N9" t="n">
-        <v>467.8947524111493</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>284.5297693407881</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>233.8188708867233</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35583,10 +35583,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6529321611259</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
         <v>259.7767692963365</v>
@@ -35820,10 +35820,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>485.5370469911907</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>453.2152403831814</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873211</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,7 +36057,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q25" t="n">
-        <v>131.7547461184307</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851011</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,7 +36680,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>249.7698920375016</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215729</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37002,7 +37002,7 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113952</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
         <v>215.0783106122746</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>614.3331587947752</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>654.8026561024611</v>
       </c>
       <c r="N32" t="n">
-        <v>559.92737344993</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605128</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649842</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659178</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576765</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>371.2794891934861</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176598</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
-        <v>244.036896499798</v>
+        <v>301.069868201523</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918832</v>
+        <v>135.0767409543512</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640775</v>
+        <v>119.4865978367167</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873206</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807274</v>
+        <v>6.174568144770362</v>
       </c>
       <c r="K43" t="n">
-        <v>118.9107133037422</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.9236034803843</v>
+        <v>99.9236034803844</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144773118</v>
+        <v>66.39235199807285</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P46" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.9236034803843</v>
+        <v>39.70581962708209</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
